--- a/natmiOut/OldD0/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.21490866306444</v>
+        <v>2.3082</v>
       </c>
       <c r="H2">
-        <v>2.21490866306444</v>
+        <v>6.9246</v>
       </c>
       <c r="I2">
-        <v>0.668497257401048</v>
+        <v>0.6638288620319053</v>
       </c>
       <c r="J2">
-        <v>0.668497257401048</v>
+        <v>0.6638288620319053</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N2">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q2">
-        <v>37.84421835304695</v>
+        <v>48.7014996656</v>
       </c>
       <c r="R2">
-        <v>37.84421835304695</v>
+        <v>438.3134969904</v>
       </c>
       <c r="S2">
-        <v>0.1679807963581621</v>
+        <v>0.1936545589678796</v>
       </c>
       <c r="T2">
-        <v>0.1679807963581621</v>
+        <v>0.1936545589678796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.21490866306444</v>
+        <v>2.3082</v>
       </c>
       <c r="H3">
-        <v>2.21490866306444</v>
+        <v>6.9246</v>
       </c>
       <c r="I3">
-        <v>0.668497257401048</v>
+        <v>0.6638288620319053</v>
       </c>
       <c r="J3">
-        <v>0.668497257401048</v>
+        <v>0.6638288620319053</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N3">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q3">
-        <v>78.90105862606356</v>
+        <v>82.67842602219999</v>
       </c>
       <c r="R3">
-        <v>78.90105862606356</v>
+        <v>744.1058341998</v>
       </c>
       <c r="S3">
-        <v>0.3502215989206997</v>
+        <v>0.3287589548047719</v>
       </c>
       <c r="T3">
-        <v>0.3502215989206997</v>
+        <v>0.3287589548047719</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.21490866306444</v>
+        <v>2.3082</v>
       </c>
       <c r="H4">
-        <v>2.21490866306444</v>
+        <v>6.9246</v>
       </c>
       <c r="I4">
-        <v>0.668497257401048</v>
+        <v>0.6638288620319053</v>
       </c>
       <c r="J4">
-        <v>0.668497257401048</v>
+        <v>0.6638288620319053</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N4">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q4">
-        <v>33.8597726811928</v>
+        <v>35.56404544599999</v>
       </c>
       <c r="R4">
-        <v>33.8597726811928</v>
+        <v>320.076409014</v>
       </c>
       <c r="S4">
-        <v>0.1502948621221864</v>
+        <v>0.1414153482592538</v>
       </c>
       <c r="T4">
-        <v>0.1502948621221864</v>
+        <v>0.1414153482592538</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.09835648281732</v>
+        <v>1.168901</v>
       </c>
       <c r="H5">
-        <v>1.09835648281732</v>
+        <v>3.506703</v>
       </c>
       <c r="I5">
-        <v>0.3315027425989519</v>
+        <v>0.3361711379680947</v>
       </c>
       <c r="J5">
-        <v>0.3315027425989519</v>
+        <v>0.3361711379680947</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N5">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q5">
-        <v>18.76666214656184</v>
+        <v>24.66304118387467</v>
       </c>
       <c r="R5">
-        <v>18.76666214656184</v>
+        <v>221.967370654872</v>
       </c>
       <c r="S5">
-        <v>0.08330040861077055</v>
+        <v>0.09806906144706415</v>
       </c>
       <c r="T5">
-        <v>0.08330040861077055</v>
+        <v>0.09806906144706416</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.09835648281732</v>
+        <v>1.168901</v>
       </c>
       <c r="H6">
-        <v>1.09835648281732</v>
+        <v>3.506703</v>
       </c>
       <c r="I6">
-        <v>0.3315027425989519</v>
+        <v>0.3361711379680947</v>
       </c>
       <c r="J6">
-        <v>0.3315027425989519</v>
+        <v>0.3361711379680947</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N6">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q6">
-        <v>39.12643924701875</v>
+        <v>41.86937650800433</v>
       </c>
       <c r="R6">
-        <v>39.12643924701875</v>
+        <v>376.824388572039</v>
       </c>
       <c r="S6">
-        <v>0.1736722466311498</v>
+        <v>0.1664875968418043</v>
       </c>
       <c r="T6">
-        <v>0.1736722466311498</v>
+        <v>0.1664875968418043</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.09835648281732</v>
+        <v>1.168901</v>
       </c>
       <c r="H7">
-        <v>1.09835648281732</v>
+        <v>3.506703</v>
       </c>
       <c r="I7">
-        <v>0.3315027425989519</v>
+        <v>0.3361711379680947</v>
       </c>
       <c r="J7">
-        <v>0.3315027425989519</v>
+        <v>0.3361711379680947</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N7">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q7">
-        <v>16.79080562159818</v>
+        <v>18.01007204136333</v>
       </c>
       <c r="R7">
-        <v>16.79080562159818</v>
+        <v>162.09064837227</v>
       </c>
       <c r="S7">
-        <v>0.07453008735703155</v>
+        <v>0.07161447967922627</v>
       </c>
       <c r="T7">
-        <v>0.07453008735703155</v>
+        <v>0.07161447967922627</v>
       </c>
     </row>
   </sheetData>
